--- a/Matlab/sensor-data.xlsx
+++ b/Matlab/sensor-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sfuca0-my.sharepoint.com/personal/kammar_sfuca0_onmicrosoft_com/Documents/Desktop/Spring 2021/ENSC 405W/Project/Workspace/company-8-project/Matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="8_{00813D6E-801C-4654-9E05-4789C4C7A1C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CC48A6F3-666B-4270-A56A-27D66654CCA9}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="8_{00813D6E-801C-4654-9E05-4789C4C7A1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21EDA69F-515F-4765-90C0-3D4F10F4AC62}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19190" windowHeight="10190" activeTab="4" xr2:uid="{8DB2FC07-4C4E-4436-8775-2880AF42DB29}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" firstSheet="4" activeTab="8" xr2:uid="{8DB2FC07-4C4E-4436-8775-2880AF42DB29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Day 1 (mPTP)" sheetId="6" r:id="rId6"/>
+    <sheet name="Day 3 (mPTP)" sheetId="7" r:id="rId7"/>
+    <sheet name="Day 5 (mPTP)" sheetId="9" r:id="rId8"/>
+    <sheet name="Aggregate mPTP" sheetId="12" r:id="rId9"/>
+    <sheet name="Aggregate fPTP" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$C$1</definedName>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
   <si>
     <t>NormSCG</t>
   </si>
@@ -91,6 +96,45 @@
   <si>
     <t>diff stdv</t>
   </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>AVG DIFF</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X </t>
+  </si>
+  <si>
+    <t>lower limit</t>
+  </si>
+  <si>
+    <t>upper limit</t>
+  </si>
+  <si>
+    <t>Upper Limit</t>
+  </si>
+  <si>
+    <t>Lower Limit</t>
+  </si>
+  <si>
+    <t>Average Difference</t>
+  </si>
+  <si>
+    <t>Correaltion</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -121,12 +165,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,6 +205,7016 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Bland-Altman Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1692038495188107E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.86559973753280839"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Day 1 (mPTP)'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Day 1 (mPTP)'!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22A6-4740-B8B9-C068C81AC064}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average Difference</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Day 1 (mPTP)'!$I$4:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Day 1 (mPTP)'!$J$4:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-22A6-4740-B8B9-C068C81AC064}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Upper Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Day 1 (mPTP)'!$I$15:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Day 1 (mPTP)'!$J$15:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.707310179771973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.707310179771973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-22A6-4740-B8B9-C068C81AC064}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Lower Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="38100">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:alpha val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-22A6-4740-B8B9-C068C81AC064}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="38100">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:alpha val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="F8CBAD"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-22A6-4740-B8B9-C068C81AC064}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Day 1 (mPTP)'!$I$10:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Day 1 (mPTP)'!$J$10:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-0.37397684643864038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.37397684643864038</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-22A6-4740-B8B9-C068C81AC064}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="965376200"/>
+        <c:axId val="965376856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="965376200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average Measurement</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965376856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="965376856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Difference Between Measurments</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965376200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Bland-Altman Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.169208888155996E-2"/>
+          <c:y val="0.12520135788035441"/>
+          <c:w val="0.86559973753280839"/>
+          <c:h val="0.74951023340329326"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Day 3 (mPTP)'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Day 3 (mPTP)'!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6592-4D9A-9AC5-A5343163C19B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average Difference</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Day 3 (mPTP)'!$I$4:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Day 3 (mPTP)'!$J$4:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4444444444444446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6592-4D9A-9AC5-A5343163C19B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Upper Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Day 3 (mPTP)'!$I$15:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Day 3 (mPTP)'!$J$15:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.9532316672003951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9532316672003951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6592-4D9A-9AC5-A5343163C19B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Lower Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="38100">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:alpha val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-6592-4D9A-9AC5-A5343163C19B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="38100">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:alpha val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="F8CBAD"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-6592-4D9A-9AC5-A5343163C19B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Day 3 (mPTP)'!$I$10:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Day 3 (mPTP)'!$J$10:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-4.0643427783115049</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.0643427783115049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6592-4D9A-9AC5-A5343163C19B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="965376200"/>
+        <c:axId val="965376856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="965376200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average Measurement</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965376856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="965376856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Difference Between Measurments</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965376200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Bland-Altman Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.169208888155996E-2"/>
+          <c:y val="0.12520135788035441"/>
+          <c:w val="0.86559973753280839"/>
+          <c:h val="0.74951023340329326"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Day 5 (mPTP)'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Day 5 (mPTP)'!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6DE-42C1-9127-D19F83F17E17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average Difference</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Day 5 (mPTP)'!$I$4:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Day 5 (mPTP)'!$J$4:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6DE-42C1-9127-D19F83F17E17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Upper Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Day 5 (mPTP)'!$I$15:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Day 5 (mPTP)'!$J$15:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10.092229374252499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.092229374252499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C6DE-42C1-9127-D19F83F17E17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Lower Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="38100">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:alpha val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-C6DE-42C1-9127-D19F83F17E17}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="38100">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:alpha val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="F8CBAD"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-C6DE-42C1-9127-D19F83F17E17}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Day 5 (mPTP)'!$I$10:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Day 5 (mPTP)'!$J$10:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-9.2229374252498886E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.2229374252498886E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C6DE-42C1-9127-D19F83F17E17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="965376200"/>
+        <c:axId val="965376856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="965376200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average Measurement</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965376856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="965376856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Difference Between Measurments</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965376200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Bland-Altman Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3838685740198709E-2"/>
+          <c:y val="0.12520135788035441"/>
+          <c:w val="0.86559973753280839"/>
+          <c:h val="0.74951023340329326"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Aggregate mPTP'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Aggregate mPTP'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D74-45F7-B49B-CACD05C9581E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average Difference</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Aggregate mPTP'!$H$4:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Aggregate mPTP'!$I$4:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.7037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7037037037037037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D74-45F7-B49B-CACD05C9581E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Upper Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Aggregate mPTP'!$H$15:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Aggregate mPTP'!$I$15:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9.2157422250648029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2157422250648029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D74-45F7-B49B-CACD05C9581E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Lower Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="38100">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:alpha val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-8D74-45F7-B49B-CACD05C9581E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="38100">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:alpha val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="F8CBAD"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-8D74-45F7-B49B-CACD05C9581E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Aggregate mPTP'!$H$10:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Aggregate mPTP'!$I$10:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-1.8083348176573959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.8083348176573959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8D74-45F7-B49B-CACD05C9581E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="965376200"/>
+        <c:axId val="965376856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="965376200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="69"/>
+          <c:min val="53"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average Measurement</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965376856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="965376856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Difference Between Measurments</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965376200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Bland-Altman Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.169208888155996E-2"/>
+          <c:y val="0.12520135788035441"/>
+          <c:w val="0.86559973753280839"/>
+          <c:h val="0.74951023340329326"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Aggregate fPTP'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Aggregate fPTP'!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95E6-4169-9E6F-A179D6CB6F90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average Difference</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Aggregate fPTP'!$I$4:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Aggregate fPTP'!$J$4:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-3.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.2222222222222223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-95E6-4169-9E6F-A179D6CB6F90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Upper Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Aggregate fPTP'!$I$15:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Aggregate fPTP'!$J$15:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.2619259699289849</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2619259699289849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-95E6-4169-9E6F-A179D6CB6F90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Lower Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:alpha val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="38100">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:alpha val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-95E6-4169-9E6F-A179D6CB6F90}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="38100">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:alpha val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="F8CBAD"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-95E6-4169-9E6F-A179D6CB6F90}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Aggregate fPTP'!$I$10:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Aggregate fPTP'!$J$10:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-9.7063704143734295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.7063704143734295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-95E6-4169-9E6F-A179D6CB6F90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="965376200"/>
+        <c:axId val="965376856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="965376200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average Measurement</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965376856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="965376856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Difference Between Measurments</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965376200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="38100">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116E5701-14DF-4BA7-BACC-6B20B9B6F85B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADC8CD8-8A70-4C38-921E-12E043677B80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F19B12C-1ECA-4F63-82FE-14F59F97A6EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81129B98-2A59-4F8B-A1E6-728693A7360A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3930313-70D4-436E-9D02-DEFFBC5BAACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12485,6 +19558,342 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7B267B-A292-46C6-AC4D-F91748924690}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1">
+        <f>AVERAGE(B2:C2)</f>
+        <v>52</v>
+      </c>
+      <c r="G2" s="1">
+        <f>B2-C2</f>
+        <v>-2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F10" si="0">AVERAGE(B3:C3)</f>
+        <v>56.5</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G10" si="1">B3-C3</f>
+        <v>-3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <f>MIN($F$2:$F$10)</f>
+        <v>52</v>
+      </c>
+      <c r="J4" s="1">
+        <f>J18</f>
+        <v>-3.2222222222222223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B5" s="1">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>56.5</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="I5" s="1">
+        <f>MAX($F$2:$F$10)</f>
+        <v>57</v>
+      </c>
+      <c r="J5" s="1">
+        <f>J18</f>
+        <v>-3.2222222222222223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B6" s="1">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="B7" s="1">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>55.5</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B9" s="1">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>55.5</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B10" s="1">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="I10" s="1">
+        <f>MIN($F$2:$F$10)</f>
+        <v>52</v>
+      </c>
+      <c r="J10" s="1">
+        <f>J19</f>
+        <v>-9.7063704143734295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I11" s="1">
+        <f>MAX($F$2:$F$10)</f>
+        <v>57</v>
+      </c>
+      <c r="J11" s="1">
+        <f>J19</f>
+        <v>-9.7063704143734295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I15" s="1">
+        <f>MIN($F$2:$F$10)</f>
+        <v>52</v>
+      </c>
+      <c r="J15" s="1">
+        <f>J20</f>
+        <v>3.2619259699289849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I16" s="1">
+        <f>MAX($F$2:$F$10)</f>
+        <v>57</v>
+      </c>
+      <c r="J16" s="1">
+        <f>J20</f>
+        <v>3.2619259699289849</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="1">
+        <f>AVERAGE(G2:G10)</f>
+        <v>-3.2222222222222223</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1">
+        <f>J18-1.96*_xlfn.STDEV.S(G2:G10)</f>
+        <v>-9.7063704143734295</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="1">
+        <f>J18+1.96*_xlfn.STDEV.S(G2:G10)</f>
+        <v>3.2619259699289849</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23">
+        <f>CORREL(B2:B10, C2:C10)</f>
+        <v>0.14998295745037951</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I13:J13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F7D325-7CC0-4BD7-A8E8-8AC24AF89038}">
   <dimension ref="A1:C1001"/>
@@ -31681,7 +39090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC998BF-E7BF-46F7-A905-B0AF9F084DDF}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14:D15"/>
     </sheetView>
   </sheetViews>
@@ -31868,4 +39277,1547 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F82193-4456-4E58-A3B2-D5E24E54093A}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B2" s="1">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1">
+        <v>65</v>
+      </c>
+      <c r="F2" s="1">
+        <f>AVERAGE(B2:C2)</f>
+        <v>67.5</v>
+      </c>
+      <c r="G2" s="1">
+        <f>B2-C2</f>
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="B3" s="1">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1">
+        <v>65</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F10" si="0">AVERAGE(B3:C3)</f>
+        <v>68</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G10" si="1">B3-C3</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B4" s="1">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>68.5</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <f>MIN($F$2:$F$10)</f>
+        <v>67.5</v>
+      </c>
+      <c r="J4" s="1">
+        <f>G14</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B5" s="1">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1">
+        <v>65</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <f>MAX($F$2:$F$10)</f>
+        <v>68.5</v>
+      </c>
+      <c r="J5" s="1">
+        <f>G14</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B6" s="1">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1">
+        <v>65</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="B7" s="1">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1">
+        <v>66</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>68.5</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B8" s="1">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1">
+        <v>68</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>68.5</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B9" s="1">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1">
+        <v>68</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>68.5</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B10" s="1">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1">
+        <v>66</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <f>MIN($F$2:$F$10)</f>
+        <v>67.5</v>
+      </c>
+      <c r="J10" s="1">
+        <f>G15</f>
+        <v>-0.37397684643864038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I11" s="1">
+        <f>MAX($F$2:$F$10)</f>
+        <v>68.5</v>
+      </c>
+      <c r="J11" s="1">
+        <f>G15</f>
+        <v>-0.37397684643864038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1">
+        <f>AVERAGE(G2:G10)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1">
+        <f>G14-1.96*_xlfn.STDEV.S(G2:G10)</f>
+        <v>-0.37397684643864038</v>
+      </c>
+      <c r="I15" s="1">
+        <f>MIN($F$2:$F$10)</f>
+        <v>67.5</v>
+      </c>
+      <c r="J15" s="1">
+        <f>G16</f>
+        <v>7.707310179771973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1">
+        <f>G14+1.96*_xlfn.STDEV.S(G2:G10)</f>
+        <v>7.707310179771973</v>
+      </c>
+      <c r="I16" s="1">
+        <f>MAX($F$2:$F$10)</f>
+        <v>68.5</v>
+      </c>
+      <c r="J16" s="1">
+        <f>G16</f>
+        <v>7.707310179771973</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F2:F10" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61175C6B-90C2-414F-A95B-28D07C356F28}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1">
+        <f>AVERAGE(B2:C2)</f>
+        <v>53.5</v>
+      </c>
+      <c r="G2" s="1">
+        <f>B2-C2</f>
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F10" si="0">AVERAGE(B3:C3)</f>
+        <v>56.5</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G10" si="1">B3-C3</f>
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <f>MIN($F$2:$F$10)</f>
+        <v>53</v>
+      </c>
+      <c r="J4" s="1">
+        <f>G14</f>
+        <v>2.4444444444444446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B5" s="1">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <f>MAX($F$2:$F$10)</f>
+        <v>57.5</v>
+      </c>
+      <c r="J5" s="1">
+        <f>G14</f>
+        <v>2.4444444444444446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B6" s="1">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>55.5</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="B7" s="1">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B8" s="1">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B9" s="1">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>55.5</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B10" s="1">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>56.5</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <f>MIN($F$2:$F$10)</f>
+        <v>53</v>
+      </c>
+      <c r="J10" s="1">
+        <f>G15</f>
+        <v>-4.0643427783115049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I11" s="1">
+        <f>MAX($F$2:$F$10)</f>
+        <v>57.5</v>
+      </c>
+      <c r="J11" s="1">
+        <f>G15</f>
+        <v>-4.0643427783115049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1">
+        <f>AVERAGE(G2:G10)</f>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1">
+        <f>G14-1.96*_xlfn.STDEV.S(G2:G10)</f>
+        <v>-4.0643427783115049</v>
+      </c>
+      <c r="I15" s="1">
+        <f>MIN($F$2:$F$10)</f>
+        <v>53</v>
+      </c>
+      <c r="J15" s="1">
+        <f>G16</f>
+        <v>8.9532316672003951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1">
+        <f>G14+1.96*_xlfn.STDEV.S(G2:G10)</f>
+        <v>8.9532316672003951</v>
+      </c>
+      <c r="I16" s="1">
+        <f>MAX($F$2:$F$10)</f>
+        <v>57.5</v>
+      </c>
+      <c r="J16" s="1">
+        <f>G16</f>
+        <v>8.9532316672003951</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I13:J13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307409A0-E6B3-4A0A-A2E7-92F24464D723}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1">
+        <f>AVERAGE(B2:C2)</f>
+        <v>63</v>
+      </c>
+      <c r="G2" s="1">
+        <f>B2-C2</f>
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F10" si="0">AVERAGE(B3:C3)</f>
+        <v>60</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G10" si="1">B3-C3</f>
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <f>MIN($F$2:$F$10)</f>
+        <v>59</v>
+      </c>
+      <c r="J4" s="1">
+        <f>G14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B5" s="1">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>59.5</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <f>MAX($F$2:$F$10)</f>
+        <v>63</v>
+      </c>
+      <c r="J5" s="1">
+        <f>G14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B6" s="1">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="B7" s="1">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B8" s="1">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>60.5</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B9" s="1">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="B10" s="1">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>60.5</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <f>MIN($F$2:$F$10)</f>
+        <v>59</v>
+      </c>
+      <c r="J10" s="1">
+        <f>G15</f>
+        <v>-9.2229374252498886E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I11" s="1">
+        <f>MAX($F$2:$F$10)</f>
+        <v>63</v>
+      </c>
+      <c r="J11" s="1">
+        <f>G15</f>
+        <v>-9.2229374252498886E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1">
+        <f>AVERAGE(G2:G10)</f>
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1">
+        <f>G14-1.96*_xlfn.STDEV.S(G2:G10)</f>
+        <v>-9.2229374252498886E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <f>MIN($F$2:$F$10)</f>
+        <v>59</v>
+      </c>
+      <c r="J15" s="1">
+        <f>G16</f>
+        <v>10.092229374252499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1">
+        <f>G14+1.96*_xlfn.STDEV.S(G2:G10)</f>
+        <v>10.092229374252499</v>
+      </c>
+      <c r="I16" s="1">
+        <f>MAX($F$2:$F$10)</f>
+        <v>63</v>
+      </c>
+      <c r="J16" s="1">
+        <f>G16</f>
+        <v>10.092229374252499</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I13:J13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A171961-2335-46B0-AEFC-F66A210A2D1B}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1">
+        <f>AVERAGE(A2:B2)</f>
+        <v>63</v>
+      </c>
+      <c r="F2" s="1">
+        <f>A2-B2</f>
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E10" si="0">AVERAGE(A3:B3)</f>
+        <v>60</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F10" si="1">A3-B3</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <f>MIN($E$2:$E$28)</f>
+        <v>53</v>
+      </c>
+      <c r="I4" s="1">
+        <f>I18</f>
+        <v>3.7037037037037037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>59.5</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <f>MAX($E$2:$E$28)</f>
+        <v>68.5</v>
+      </c>
+      <c r="I5" s="1">
+        <f>I18</f>
+        <v>3.7037037037037037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>60.5</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>66</v>
+      </c>
+      <c r="B9" s="1">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>60.5</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <f>MIN($E$2:$E$28)</f>
+        <v>53</v>
+      </c>
+      <c r="I10" s="1">
+        <f>I19</f>
+        <v>-1.8083348176573959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1">
+        <v>65</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ref="E11:E28" si="2">AVERAGE(A11:B11)</f>
+        <v>67.5</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:F28" si="3">A11-B11</f>
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <f>MAX($E$2:$E$28)</f>
+        <v>68.5</v>
+      </c>
+      <c r="I11" s="1">
+        <f>I19</f>
+        <v>-1.8083348176573959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>71</v>
+      </c>
+      <c r="B12" s="1">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1">
+        <v>68</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>67.5</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>67.5</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <f>MIN($E$2:$E$28)</f>
+        <v>53</v>
+      </c>
+      <c r="I15" s="1">
+        <f>I20</f>
+        <v>9.2157422250648029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <f>MAX($E$2:$E$28)</f>
+        <v>68.5</v>
+      </c>
+      <c r="I16" s="1">
+        <f>I20</f>
+        <v>9.2157422250648029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1">
+        <v>68</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1">
+        <v>68</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>68.5</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1">
+        <f>AVERAGE(F2:F28)</f>
+        <v>3.7037037037037037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="1">
+        <f>I18-1.96*_xlfn.STDEV.S(F2:F28)</f>
+        <v>-1.8083348176573959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>53.5</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="1">
+        <f>I18+1.96*_xlfn.STDEV.S(F2:F28)</f>
+        <v>9.2157422250648029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1">
+        <v>54</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>56.5</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1">
+        <v>55</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1">
+        <v>56</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>57.5</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1">
+        <v>58</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1">
+        <v>55</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <f>CORREL(A2:A28, B2:B28)</f>
+        <v>0.87122883206193491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1">
+        <v>55</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>59</v>
+      </c>
+      <c r="B28" s="1">
+        <v>54</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="2"/>
+        <v>56.5</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H13:I13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Matlab/sensor-data.xlsx
+++ b/Matlab/sensor-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sfuca0-my.sharepoint.com/personal/kammar_sfuca0_onmicrosoft_com/Documents/Desktop/Spring 2021/ENSC 405W/Project/Workspace/company-8-project/Matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="426" documentId="8_{00813D6E-801C-4654-9E05-4789C4C7A1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21EDA69F-515F-4765-90C0-3D4F10F4AC62}"/>
+  <xr:revisionPtr revIDLastSave="438" documentId="8_{00813D6E-801C-4654-9E05-4789C4C7A1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41931FC9-2468-486D-ACEA-C1AB24A236CF}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" firstSheet="4" activeTab="8" xr2:uid="{8DB2FC07-4C4E-4436-8775-2880AF42DB29}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19190" windowHeight="10190" firstSheet="5" activeTab="8" xr2:uid="{8DB2FC07-4C4E-4436-8775-2880AF42DB29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="28">
   <si>
     <t>NormSCG</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Average Difference</t>
-  </si>
-  <si>
-    <t>Correaltion</t>
   </si>
   <si>
     <t>Correlation</t>
@@ -3434,6 +3431,749 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Blood Pressure Estimation Correlation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Aggregate mPTP'!$A$2:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Aggregate mPTP'!$B$2:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59F1-42A5-8B38-44F8740568C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Aggregate mPTP'!$A$2:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Aggregate mPTP'!$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.87122883206193491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-59F1-42A5-8B38-44F8740568C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="675262096"/>
+        <c:axId val="675255864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="675262096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Estimated Blood Pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48228346456692911"/>
+              <c:y val="0.87868037328667248"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675255864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="675255864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Real Blood Pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="675262096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -4375,6 +5115,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6487,6 +7267,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="249">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7171,10 +8467,92 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>115794</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82922</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ACBD48-6ACA-4CBD-8B2A-DF9739891D1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14624</cdr:x>
+      <cdr:y>0.18546</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.31944</cdr:x>
+      <cdr:y>0.29711</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F121C270-764D-4590-BC97-897CB581484C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="668618" y="508748"/>
+          <a:ext cx="791882" cy="306294"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>R = 0.87</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19876,7 +21254,7 @@
     </row>
     <row r="23" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J23">
         <f>CORREL(B2:B10, C2:C10)</f>
@@ -40249,8 +41627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A171961-2335-46B0-AEFC-F66A210A2D1B}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
